--- a/file/map3/test_180418.xlsx
+++ b/file/map3/test_180418.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\github2\order\file\map3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzy\Documents\GitHub\order\file\map3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2C3BDE76-A2B9-462D-9953-B8731344FB1C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CFF85740-F2EC-4AAF-88C7-FC8F9E3050CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="19425" windowHeight="11025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23554,7 +23554,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A97" sqref="A1:C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/file/map3/test_180418.xlsx
+++ b/file/map3/test_180418.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzy\Documents\GitHub\order\file\map3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CFF85740-F2EC-4AAF-88C7-FC8F9E3050CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FF0E956B-CCEE-4280-8AC3-DEA35664801C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="19425" windowHeight="11025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="19425" windowHeight="11025" firstSheet="18" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1990" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,27 @@
     <sheet name="2016" sheetId="27" r:id="rId27"/>
     <sheet name="2017" sheetId="28" r:id="rId28"/>
     <sheet name="2018" sheetId="29" r:id="rId29"/>
+    <sheet name="Unit" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>USD/cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mt/cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>titleUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23553,7 +23571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A97" sqref="A1:C190"/>
     </sheetView>
   </sheetViews>
@@ -40407,6 +40425,33 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F616F5C-3825-4214-8548-43D33DDAAC24}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C190"/>

--- a/file/map3/test_180418.xlsx
+++ b/file/map3/test_180418.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzy\Documents\GitHub\order\file\map3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FF0E956B-CCEE-4280-8AC3-DEA35664801C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1AA1487B-AAE6-42C7-BB16-4EAC69768C25}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="19425" windowHeight="11025" firstSheet="18" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1271,13 +1271,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>45.825305220567223</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>1480.41</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>14255.900410980301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -2564,6 +2564,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2571,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3371,13 +3372,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>47.473463131696143</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>2381.15</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>14749.6007581993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -4671,8 +4672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5471,13 +5472,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>55.329439680135167</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>2354.5320000000002</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>17380.770040636799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -6771,8 +6772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7571,13 +7572,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>51.244820985988014</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>2410.83</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>15697.460467721599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -8871,8 +8872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9671,13 +9672,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>58.024387637514032</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>2437.3960000000002</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>18226.277492660101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -10971,8 +10972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11771,13 +11772,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>58.984498244106526</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>2412.9810000000002</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>18206.891261307301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -13071,8 +13072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13871,13 +13872,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>66.086598394211279</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>2493.1419999999998</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>20546.191119824402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -15171,8 +15172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15971,13 +15972,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
-        <v>77.612732357871408</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>2446.652</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>21726.6901614136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -17271,8 +17272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18071,13 +18072,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>81.786716849627069</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>2576.7750000000001</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>24886.9384367452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -19371,8 +19372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20171,13 +20172,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>97.850482745707211</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>2764.06</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>30082.625284237201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -21471,8 +21472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22271,13 +22272,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>114.69102769667018</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>2824.5680000000002</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>35678.4512757212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -23564,6 +23565,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23571,8 +23573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A97" sqref="A1:C190"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23586,8 +23588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24386,13 +24388,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>110.1590662696269</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>2927.3270000000002</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>33638.098610182104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -25686,8 +25688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26486,13 +26488,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>130.27649850313571</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>3044.9490000000001</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>40408.190812806002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -27786,8 +27788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28586,13 +28588,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>148.85699763132158</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>3192.2959999999998</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>46289.854323890897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -29886,8 +29888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30686,13 +30688,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>110.66757798387805</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>3342.9209999999998</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>26639.950549085101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -31986,8 +31988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -32786,13 +32788,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>109.24715037441989</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>3487.5479999999998</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>25583.969892185101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -34086,8 +34088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -34886,13 +34888,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>109.586246858781</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>3598.2910000000002</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>25870.435366338901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -36186,8 +36188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36986,13 +36988,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>112.94284768410387</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>3683.5030000000002</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>26795.573264787199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -38286,7 +38288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -38329,8 +38331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -39129,13 +39131,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>54.465573232193158</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>1680.971</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>18129.274544754699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -40430,7 +40432,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -40456,8 +40458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -41256,13 +41258,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>59.876605983668533</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>1806.1279999999999</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>19963.2390731675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -42556,8 +42558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -43356,13 +43358,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>59.009821838291039</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>1947.5129999999999</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>19633.8271712368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -44656,8 +44658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -45456,13 +45458,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>59.510556256908721</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>2036.702</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>19936.078401611801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -46756,8 +46758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -47556,13 +47558,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>60.871830158370486</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>2195.6210000000001</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>20317.117756800901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -48856,8 +48858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -49656,13 +49658,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>53.734730241777363</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>2336.4839999999999</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>17365.303726387399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -50956,8 +50958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C190"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -51756,13 +51758,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>49.087327792319172</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>2304.3139999999999</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>15153.915910981599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
